--- a/Data/Processed/Angiosperms/missing_powo_ipni/Pontederiaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Pontederiaceae.xlsx
@@ -2137,7 +2137,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
